--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2641285.961963248</v>
+        <v>2639033.882252042</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>50.84399365306222</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.7363964403894</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>10.93787135974287</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -874,13 +874,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>139.214513896785</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>242.8528437613041</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>16.61609021060037</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>99.84759100840613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,16 +1108,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>106.9578662344163</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>297.9986308222606</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316074</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991757</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187843</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>129.1078928223841</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892427316</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365927</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>143.4157347120537</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>10.74993283584209</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703276</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484859</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>95.21019414968927</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>104.8913819999782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>241.8115698409622</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>7.408064079030886</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3901,13 +3901,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>78.89395497654093</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2098.94140762926</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C2" t="n">
-        <v>1729.978890688848</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>1371.713192082098</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>985.9249394838532</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>574.9390346942457</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>159.8665845392422</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2862.546497866151</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2489.080739605071</v>
+        <v>1941.938622099438</v>
       </c>
       <c r="Y2" t="n">
-        <v>2098.94140762926</v>
+        <v>1941.938622099438</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4410,13 +4410,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4428,31 +4428,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601528</v>
+        <v>560.4166776763448</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>223.7776581231568</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>77.56047134101462</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>994.2880032601528</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W4" t="n">
-        <v>994.2880032601528</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X4" t="n">
-        <v>994.2880032601528</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y4" t="n">
-        <v>994.2880032601528</v>
+        <v>742.0651425065845</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2175.400891308157</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>1806.438374367746</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>1448.172675760995</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>1062.384423162751</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>651.3985183731436</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>3325.605821609171</v>
+        <v>2407.960111945097</v>
       </c>
       <c r="X5" t="n">
-        <v>2952.140063348091</v>
+        <v>2034.494353684017</v>
       </c>
       <c r="Y5" t="n">
-        <v>2562.000731372279</v>
+        <v>1644.355021708206</v>
       </c>
     </row>
     <row r="6">
@@ -4620,31 +4620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>651.920382101508</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>482.9841991736012</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>482.9841991736012</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>335.071105591208</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046018</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>862.0164446829692</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X7" t="n">
-        <v>862.0164446829692</v>
+        <v>651.920382101508</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>651.920382101508</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694473</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473105</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5528805490663</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4805,7 +4805,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4881,13 +4881,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738584</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>583.8261120459515</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336157</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512226</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533123</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4963,16 +4963,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845646</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040981</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5057,34 +5057,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>114.2598873597751</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797183</v>
+        <v>448.1846595309957</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797183</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438182</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998425</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400626</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121557</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121557</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121557</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121557</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270356</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279794</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853352</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580252</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832654</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487559</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.4610805105</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854697</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564881</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561185</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138324</v>
+        <v>916.2946447138399</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703023</v>
+        <v>695.5020655703098</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192986</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111752</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075842</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444888</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7772127656161</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377092</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253735</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,13 +5452,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1133.425677595856</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,46 +5516,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191926</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349515</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061504</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.043492616111</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,16 +5747,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5765,10 +5765,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5841,13 +5841,13 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="23">
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6124,19 +6124,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6254,7 +6254,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
         <v>402.7245934908939</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6686,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6780,13 +6780,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400712</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
         <v>407.9027098310023</v>
@@ -6892,16 +6892,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1444.131742904239</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1154.714572867279</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>926.7250219692613</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>705.9324428257312</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7017,13 +7017,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7196,13 +7196,13 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803936</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516141</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438179</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438179</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7366,16 +7366,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7406,31 +7406,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192764</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111731</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438179</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="44">
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438179</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7783,22 +7783,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>19.50758019582821</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392195072</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>36.41624546988359</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>214.9597225531951</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194129</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>180.5487903941886</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>18.49466557218918</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>45.44677382459307</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>53.40527886852308</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>41.54258064659096</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>10.32607348286584</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,16 +25315,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>279.1149342575601</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>24.63391537253449</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,13 +25789,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>63.36835372228749</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>66.52709304639032</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>779598.0929707643</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>779598.0929707644</v>
+        <v>779598.0929707645</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>779598.0929707644</v>
+        <v>779598.0929707645</v>
       </c>
     </row>
     <row r="13">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914267</v>
@@ -26320,40 +26320,40 @@
         <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520044</v>
+        <v>645717.279752005</v>
       </c>
       <c r="F2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="J2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="M2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="H2" t="n">
-        <v>645717.2797520045</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
         <v>645717.2797520048</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.279752005</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073545</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>1.954454091901425e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7.071203071973287e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="C4" t="n">
         <v>92793.84288319401</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
+        <v>13606.80811184277</v>
+      </c>
+      <c r="G4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="G4" t="n">
-        <v>13606.80811184272</v>
-      </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184276</v>
@@ -26442,16 +26442,16 @@
         <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184284</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184275</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-872639.1132807531</v>
+        <v>-872639.1132807535</v>
       </c>
       <c r="C6" t="n">
         <v>456105.6324468395</v>
       </c>
       <c r="D6" t="n">
-        <v>456105.6324468392</v>
+        <v>456105.6324468395</v>
       </c>
       <c r="E6" t="n">
-        <v>205575.4800089002</v>
+        <v>205540.7420834641</v>
       </c>
       <c r="F6" t="n">
-        <v>530987.941816255</v>
+        <v>530953.20389082</v>
       </c>
       <c r="G6" t="n">
-        <v>530987.9418162544</v>
+        <v>530953.2038908193</v>
       </c>
       <c r="H6" t="n">
-        <v>530987.9418162551</v>
+        <v>530953.2038908197</v>
       </c>
       <c r="I6" t="n">
-        <v>530987.9418162552</v>
+        <v>530953.2038908197</v>
       </c>
       <c r="J6" t="n">
-        <v>313456.7394189775</v>
+        <v>313422.0014935419</v>
       </c>
       <c r="K6" t="n">
-        <v>530987.9418162551</v>
+        <v>530953.2038908193</v>
       </c>
       <c r="L6" t="n">
-        <v>530987.9418162551</v>
+        <v>530953.2038908197</v>
       </c>
       <c r="M6" t="n">
-        <v>445932.9138807433</v>
+        <v>445898.1759553077</v>
       </c>
       <c r="N6" t="n">
-        <v>530987.941816255</v>
+        <v>530953.2038908198</v>
       </c>
       <c r="O6" t="n">
-        <v>530987.9418162551</v>
+        <v>530953.2038908196</v>
       </c>
       <c r="P6" t="n">
-        <v>530987.9418162552</v>
+        <v>530953.2038908193</v>
       </c>
     </row>
   </sheetData>
@@ -26741,13 +26741,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483748</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>243.7637707342582</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>240.9947042380796</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>85.41454905009522</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>112.923129427043</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>168.0688818921493</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>332.6248785068126</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>45.57345701452512</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>179.5651321021747</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>108.8774149194509</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468616</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.7856813609076</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911066</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.330580173293129e-12</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-7.729757574755542e-12</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-4.939277081144419e-13</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-2.05766345930489e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.025899448199198e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026431</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>147.4873481937407</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622672</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067271</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O15" t="n">
-        <v>461.1007071927461</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319844</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>522.1224556861836</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,19 +32783,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>287.9685048518523</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33023,25 +33023,25 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33190,7 +33190,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159425</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33415,10 +33415,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33500,16 +33500,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,16 +33737,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,37 +33971,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>240.4469701760395</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622667</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>626.4629682828348</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34442,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622667</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597635</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>20.64972152707399</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402489</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789205</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060375</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236321183</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O15" t="n">
-        <v>318.5044627483017</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875399</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,10 +36452,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37063,10 +37063,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>101.8925903961654</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402485</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402485</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
